--- a/CDSImagingPilotProtocol_TimingsBlock5.xlsx
+++ b/CDSImagingPilotProtocol_TimingsBlock5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cchmc-my.sharepoint.com/personal/nicholas_dunn_cchmc_org/Documents/Documents/06 - Neuroimaging Study/SART/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="11_714D55AF09608C1D70C00786FB012D16618A11DC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AB1FD17-4B16-4803-8098-3614794BAD7B}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="11_714D55AF09608C1D70C00786FB012D16618A11DC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9C2F1BE-0B58-45DA-A9A5-AA56F3EB4D10}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="855" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="110">
   <si>
     <t>Non-target</t>
   </si>
@@ -351,9 +351,6 @@
   </si>
   <si>
     <t>right</t>
-  </si>
-  <si>
-    <t>space</t>
   </si>
   <si>
     <t/>
@@ -724,7 +721,7 @@
   <dimension ref="A1:G346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I234" sqref="I234"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -756,7 +753,7 @@
         <v>102</v>
       </c>
       <c r="G1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -776,7 +773,7 @@
         <v>1800</v>
       </c>
       <c r="F2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -796,7 +793,7 @@
         <v>1800</v>
       </c>
       <c r="F3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -816,7 +813,7 @@
         <v>1800</v>
       </c>
       <c r="F4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -836,7 +833,7 @@
         <v>1800</v>
       </c>
       <c r="F5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -856,7 +853,7 @@
         <v>1800</v>
       </c>
       <c r="F6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -876,7 +873,7 @@
         <v>1800</v>
       </c>
       <c r="F7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -896,7 +893,7 @@
         <v>1800</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -916,7 +913,7 @@
         <v>1800</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -936,7 +933,7 @@
         <v>1800</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -956,7 +953,7 @@
         <v>1800</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -976,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -984,7 +981,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C13">
         <v>31000</v>
@@ -1016,7 +1013,7 @@
         <v>1800</v>
       </c>
       <c r="F14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1036,7 +1033,7 @@
         <v>1800</v>
       </c>
       <c r="F15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1056,7 +1053,7 @@
         <v>1800</v>
       </c>
       <c r="F16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1076,7 +1073,7 @@
         <v>1800</v>
       </c>
       <c r="F17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1096,7 +1093,7 @@
         <v>1800</v>
       </c>
       <c r="F18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1116,7 +1113,7 @@
         <v>1800</v>
       </c>
       <c r="F19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1136,7 +1133,7 @@
         <v>1800</v>
       </c>
       <c r="F20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1156,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1164,7 +1161,7 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C22">
         <v>60500</v>
@@ -1196,7 +1193,7 @@
         <v>1800</v>
       </c>
       <c r="F23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1216,7 +1213,7 @@
         <v>1800</v>
       </c>
       <c r="F24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1236,7 +1233,7 @@
         <v>1800</v>
       </c>
       <c r="F25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1256,7 +1253,7 @@
         <v>1800</v>
       </c>
       <c r="F26" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1276,7 +1273,7 @@
         <v>1800</v>
       </c>
       <c r="F27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1296,7 +1293,7 @@
         <v>1800</v>
       </c>
       <c r="F28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1316,7 +1313,7 @@
         <v>1800</v>
       </c>
       <c r="F29" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1336,7 +1333,7 @@
         <v>1800</v>
       </c>
       <c r="F30" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1356,7 +1353,7 @@
         <v>1800</v>
       </c>
       <c r="F31" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1376,7 +1373,7 @@
         <v>1800</v>
       </c>
       <c r="F32" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1396,7 +1393,7 @@
         <v>1800</v>
       </c>
       <c r="F33" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1416,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1424,7 +1421,7 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C35">
         <v>100000</v>
@@ -1456,7 +1453,7 @@
         <v>1800</v>
       </c>
       <c r="F36" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1476,7 +1473,7 @@
         <v>1800</v>
       </c>
       <c r="F37" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1496,7 +1493,7 @@
         <v>1800</v>
       </c>
       <c r="F38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1516,7 +1513,7 @@
         <v>1800</v>
       </c>
       <c r="F39" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1536,7 +1533,7 @@
         <v>1800</v>
       </c>
       <c r="F40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1556,7 +1553,7 @@
         <v>1800</v>
       </c>
       <c r="F41" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1576,7 +1573,7 @@
         <v>1800</v>
       </c>
       <c r="F42" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1596,7 +1593,7 @@
         <v>1800</v>
       </c>
       <c r="F43" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1616,7 +1613,7 @@
         <v>1800</v>
       </c>
       <c r="F44" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1636,7 +1633,7 @@
         <v>1800</v>
       </c>
       <c r="F45" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1656,7 +1653,7 @@
         <v>1800</v>
       </c>
       <c r="F46" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1676,7 +1673,7 @@
         <v>1800</v>
       </c>
       <c r="F47" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1696,7 +1693,7 @@
         <v>1800</v>
       </c>
       <c r="F48" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1716,7 +1713,7 @@
         <v>1800</v>
       </c>
       <c r="F49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1736,7 +1733,7 @@
         <v>1800</v>
       </c>
       <c r="F50" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1756,7 +1753,7 @@
         <v>1800</v>
       </c>
       <c r="F51" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1776,7 +1773,7 @@
         <v>1800</v>
       </c>
       <c r="F52" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1796,7 +1793,7 @@
         <v>1800</v>
       </c>
       <c r="F53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1816,7 +1813,7 @@
         <v>1800</v>
       </c>
       <c r="F54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1836,7 +1833,7 @@
         <v>1800</v>
       </c>
       <c r="F55" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1856,7 +1853,7 @@
         <v>1800</v>
       </c>
       <c r="F56" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1876,7 +1873,7 @@
         <v>1800</v>
       </c>
       <c r="F57" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1896,7 +1893,7 @@
         <v>1800</v>
       </c>
       <c r="F58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1916,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="F59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1924,7 +1921,7 @@
         <v>13</v>
       </c>
       <c r="B60" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C60">
         <v>169500</v>
@@ -1956,7 +1953,7 @@
         <v>1800</v>
       </c>
       <c r="F61" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1976,7 +1973,7 @@
         <v>1800</v>
       </c>
       <c r="F62" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1996,7 +1993,7 @@
         <v>1800</v>
       </c>
       <c r="F63" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2016,7 +2013,7 @@
         <v>1800</v>
       </c>
       <c r="F64" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2036,7 +2033,7 @@
         <v>1800</v>
       </c>
       <c r="F65" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2056,7 +2053,7 @@
         <v>1800</v>
       </c>
       <c r="F66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2076,7 +2073,7 @@
         <v>1800</v>
       </c>
       <c r="F67" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2096,7 +2093,7 @@
         <v>1800</v>
       </c>
       <c r="F68" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2116,7 +2113,7 @@
         <v>1800</v>
       </c>
       <c r="F69" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2136,7 +2133,7 @@
         <v>1800</v>
       </c>
       <c r="F70" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2156,7 +2153,7 @@
         <v>1800</v>
       </c>
       <c r="F71" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2176,7 +2173,7 @@
         <v>1800</v>
       </c>
       <c r="F72" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2196,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="F73" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2204,7 +2201,7 @@
         <v>16</v>
       </c>
       <c r="B74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C74">
         <v>211500</v>
@@ -2236,7 +2233,7 @@
         <v>1800</v>
       </c>
       <c r="F75" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2256,7 +2253,7 @@
         <v>1800</v>
       </c>
       <c r="F76" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2276,7 +2273,7 @@
         <v>1800</v>
       </c>
       <c r="F77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2296,7 +2293,7 @@
         <v>1800</v>
       </c>
       <c r="F78" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2316,7 +2313,7 @@
         <v>1800</v>
       </c>
       <c r="F79" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2336,7 +2333,7 @@
         <v>1800</v>
       </c>
       <c r="F80" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2356,7 +2353,7 @@
         <v>1800</v>
       </c>
       <c r="F81" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2376,7 +2373,7 @@
         <v>1800</v>
       </c>
       <c r="F82" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2396,7 +2393,7 @@
         <v>1800</v>
       </c>
       <c r="F83" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2416,7 +2413,7 @@
         <v>1800</v>
       </c>
       <c r="F84" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2436,7 +2433,7 @@
         <v>1800</v>
       </c>
       <c r="F85" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2456,7 +2453,7 @@
         <v>1800</v>
       </c>
       <c r="F86" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2476,7 +2473,7 @@
         <v>1800</v>
       </c>
       <c r="F87" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2496,7 +2493,7 @@
         <v>1800</v>
       </c>
       <c r="F88" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2516,7 +2513,7 @@
         <v>1800</v>
       </c>
       <c r="F89" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2536,7 +2533,7 @@
         <v>1800</v>
       </c>
       <c r="F90" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2556,7 +2553,7 @@
         <v>1800</v>
       </c>
       <c r="F91" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2576,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="F92" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2584,7 +2581,7 @@
         <v>21</v>
       </c>
       <c r="B93" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C93">
         <v>266000</v>
@@ -2616,7 +2613,7 @@
         <v>1800</v>
       </c>
       <c r="F94" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2636,7 +2633,7 @@
         <v>1800</v>
       </c>
       <c r="F95" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2656,7 +2653,7 @@
         <v>1800</v>
       </c>
       <c r="F96" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2676,7 +2673,7 @@
         <v>1800</v>
       </c>
       <c r="F97" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2696,7 +2693,7 @@
         <v>1800</v>
       </c>
       <c r="F98" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2716,7 +2713,7 @@
         <v>1800</v>
       </c>
       <c r="F99" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2736,7 +2733,7 @@
         <v>1800</v>
       </c>
       <c r="F100" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2756,7 +2753,7 @@
         <v>1800</v>
       </c>
       <c r="F101" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2776,7 +2773,7 @@
         <v>1800</v>
       </c>
       <c r="F102" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2796,7 +2793,7 @@
         <v>1800</v>
       </c>
       <c r="F103" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2816,7 +2813,7 @@
         <v>1800</v>
       </c>
       <c r="F104" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2836,7 +2833,7 @@
         <v>1800</v>
       </c>
       <c r="F105" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2856,7 +2853,7 @@
         <v>1800</v>
       </c>
       <c r="F106" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2876,7 +2873,7 @@
         <v>1800</v>
       </c>
       <c r="F107" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2896,7 +2893,7 @@
         <v>1800</v>
       </c>
       <c r="F108" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2916,7 +2913,7 @@
         <v>1800</v>
       </c>
       <c r="F109" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2936,7 +2933,7 @@
         <v>1800</v>
       </c>
       <c r="F110" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2956,7 +2953,7 @@
         <v>1800</v>
       </c>
       <c r="F111" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2976,7 +2973,7 @@
         <v>1800</v>
       </c>
       <c r="F112" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2996,7 +2993,7 @@
         <v>1800</v>
       </c>
       <c r="F113" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3016,7 +3013,7 @@
         <v>1800</v>
       </c>
       <c r="F114" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3036,7 +3033,7 @@
         <v>1800</v>
       </c>
       <c r="F115" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3056,7 +3053,7 @@
         <v>1800</v>
       </c>
       <c r="F116" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3076,7 +3073,7 @@
         <v>1800</v>
       </c>
       <c r="F117" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3096,7 +3093,7 @@
         <v>1800</v>
       </c>
       <c r="F118" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3116,7 +3113,7 @@
         <v>1800</v>
       </c>
       <c r="F119" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3136,7 +3133,7 @@
         <v>1800</v>
       </c>
       <c r="F120" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3156,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="F121" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3164,7 +3161,7 @@
         <v>26</v>
       </c>
       <c r="B122" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C122">
         <v>345500</v>
@@ -3196,7 +3193,7 @@
         <v>1800</v>
       </c>
       <c r="F123" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3216,7 +3213,7 @@
         <v>1800</v>
       </c>
       <c r="F124" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3236,7 +3233,7 @@
         <v>1800</v>
       </c>
       <c r="F125" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3256,7 +3253,7 @@
         <v>1800</v>
       </c>
       <c r="F126" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3276,7 +3273,7 @@
         <v>1800</v>
       </c>
       <c r="F127" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3296,7 +3293,7 @@
         <v>1800</v>
       </c>
       <c r="F128" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3316,7 +3313,7 @@
         <v>1800</v>
       </c>
       <c r="F129" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3336,7 +3333,7 @@
         <v>1800</v>
       </c>
       <c r="F130" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3356,7 +3353,7 @@
         <v>1800</v>
       </c>
       <c r="F131" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3376,7 +3373,7 @@
         <v>1800</v>
       </c>
       <c r="F132" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3396,7 +3393,7 @@
         <v>1800</v>
       </c>
       <c r="F133" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3416,7 +3413,7 @@
         <v>1800</v>
       </c>
       <c r="F134" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3436,7 +3433,7 @@
         <v>1800</v>
       </c>
       <c r="F135" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3456,7 +3453,7 @@
         <v>1800</v>
       </c>
       <c r="F136" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3476,7 +3473,7 @@
         <v>1800</v>
       </c>
       <c r="F137" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3496,7 +3493,7 @@
         <v>1800</v>
       </c>
       <c r="F138" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3516,7 +3513,7 @@
         <v>1800</v>
       </c>
       <c r="F139" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3536,7 +3533,7 @@
         <v>1800</v>
       </c>
       <c r="F140" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3556,7 +3553,7 @@
         <v>1800</v>
       </c>
       <c r="F141" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3576,7 +3573,7 @@
         <v>1800</v>
       </c>
       <c r="F142" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3596,7 +3593,7 @@
         <v>1800</v>
       </c>
       <c r="F143" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3616,7 +3613,7 @@
         <v>1800</v>
       </c>
       <c r="F144" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3636,7 +3633,7 @@
         <v>1800</v>
       </c>
       <c r="F145" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3656,7 +3653,7 @@
         <v>1800</v>
       </c>
       <c r="F146" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3676,7 +3673,7 @@
         <v>1800</v>
       </c>
       <c r="F147" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3696,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="F148" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3704,7 +3701,7 @@
         <v>33</v>
       </c>
       <c r="B149" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C149">
         <v>420000</v>
@@ -3736,7 +3733,7 @@
         <v>1800</v>
       </c>
       <c r="F150" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3756,7 +3753,7 @@
         <v>1800</v>
       </c>
       <c r="F151" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3776,7 +3773,7 @@
         <v>1800</v>
       </c>
       <c r="F152" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3796,7 +3793,7 @@
         <v>1800</v>
       </c>
       <c r="F153" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3816,7 +3813,7 @@
         <v>1800</v>
       </c>
       <c r="F154" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3836,7 +3833,7 @@
         <v>1800</v>
       </c>
       <c r="F155" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3856,7 +3853,7 @@
         <v>1800</v>
       </c>
       <c r="F156" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -3876,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="F157" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -3884,7 +3881,7 @@
         <v>36</v>
       </c>
       <c r="B158" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C158">
         <v>449500</v>
@@ -3916,7 +3913,7 @@
         <v>1800</v>
       </c>
       <c r="F159" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -3936,7 +3933,7 @@
         <v>1800</v>
       </c>
       <c r="F160" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3956,7 +3953,7 @@
         <v>1800</v>
       </c>
       <c r="F161" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3976,7 +3973,7 @@
         <v>1800</v>
       </c>
       <c r="F162" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3996,7 +3993,7 @@
         <v>1800</v>
       </c>
       <c r="F163" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4016,7 +4013,7 @@
         <v>1800</v>
       </c>
       <c r="F164" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4036,7 +4033,7 @@
         <v>1800</v>
       </c>
       <c r="F165" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4056,7 +4053,7 @@
         <v>1800</v>
       </c>
       <c r="F166" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4076,7 +4073,7 @@
         <v>1800</v>
       </c>
       <c r="F167" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4096,7 +4093,7 @@
         <v>1800</v>
       </c>
       <c r="F168" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4116,7 +4113,7 @@
         <v>1800</v>
       </c>
       <c r="F169" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4136,7 +4133,7 @@
         <v>1800</v>
       </c>
       <c r="F170" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4156,7 +4153,7 @@
         <v>1800</v>
       </c>
       <c r="F171" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4176,7 +4173,7 @@
         <v>1800</v>
       </c>
       <c r="F172" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4196,7 +4193,7 @@
         <v>1800</v>
       </c>
       <c r="F173" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4216,7 +4213,7 @@
         <v>1800</v>
       </c>
       <c r="F174" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4236,7 +4233,7 @@
         <v>1800</v>
       </c>
       <c r="F175" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4256,7 +4253,7 @@
         <v>1800</v>
       </c>
       <c r="F176" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4276,7 +4273,7 @@
         <v>1800</v>
       </c>
       <c r="F177" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4296,7 +4293,7 @@
         <v>1800</v>
       </c>
       <c r="F178" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4316,7 +4313,7 @@
         <v>1800</v>
       </c>
       <c r="F179" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4336,7 +4333,7 @@
         <v>1800</v>
       </c>
       <c r="F180" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4356,7 +4353,7 @@
         <v>1800</v>
       </c>
       <c r="F181" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4376,7 +4373,7 @@
         <v>1800</v>
       </c>
       <c r="F182" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4396,7 +4393,7 @@
         <v>1800</v>
       </c>
       <c r="F183" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4416,7 +4413,7 @@
         <v>1800</v>
       </c>
       <c r="F184" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4436,7 +4433,7 @@
         <v>1800</v>
       </c>
       <c r="F185" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4456,7 +4453,7 @@
         <v>1800</v>
       </c>
       <c r="F186" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4476,7 +4473,7 @@
         <v>1800</v>
       </c>
       <c r="F187" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4496,7 +4493,7 @@
         <v>1800</v>
       </c>
       <c r="F188" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4516,7 +4513,7 @@
         <v>1800</v>
       </c>
       <c r="F189" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4536,7 +4533,7 @@
         <v>1800</v>
       </c>
       <c r="F190" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4556,7 +4553,7 @@
         <v>1800</v>
       </c>
       <c r="F191" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4576,7 +4573,7 @@
         <v>1800</v>
       </c>
       <c r="F192" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4596,7 +4593,7 @@
         <v>1800</v>
       </c>
       <c r="F193" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4616,7 +4613,7 @@
         <v>1800</v>
       </c>
       <c r="F194" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4636,7 +4633,7 @@
         <v>1800</v>
       </c>
       <c r="F195" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4656,7 +4653,7 @@
         <v>1800</v>
       </c>
       <c r="F196" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4676,7 +4673,7 @@
         <v>1800</v>
       </c>
       <c r="F197" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4696,7 +4693,7 @@
         <v>1800</v>
       </c>
       <c r="F198" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4716,7 +4713,7 @@
         <v>1800</v>
       </c>
       <c r="F199" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4736,7 +4733,7 @@
         <v>1800</v>
       </c>
       <c r="F200" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4756,7 +4753,7 @@
         <v>1800</v>
       </c>
       <c r="F201" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4776,7 +4773,7 @@
         <v>1800</v>
       </c>
       <c r="F202" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4796,7 +4793,7 @@
         <v>1800</v>
       </c>
       <c r="F203" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4816,7 +4813,7 @@
         <v>1800</v>
       </c>
       <c r="F204" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4836,7 +4833,7 @@
         <v>1800</v>
       </c>
       <c r="F205" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4856,7 +4853,7 @@
         <v>1800</v>
       </c>
       <c r="F206" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4876,7 +4873,7 @@
         <v>1800</v>
       </c>
       <c r="F207" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4896,7 +4893,7 @@
         <v>1800</v>
       </c>
       <c r="F208" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4916,7 +4913,7 @@
         <v>1800</v>
       </c>
       <c r="F209" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4936,7 +4933,7 @@
         <v>1800</v>
       </c>
       <c r="F210" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4956,7 +4953,7 @@
         <v>1800</v>
       </c>
       <c r="F211" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4976,7 +4973,7 @@
         <v>1800</v>
       </c>
       <c r="F212" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4996,7 +4993,7 @@
         <v>1800</v>
       </c>
       <c r="F213" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5016,7 +5013,7 @@
         <v>1800</v>
       </c>
       <c r="F214" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5036,7 +5033,7 @@
         <v>1800</v>
       </c>
       <c r="F215" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5056,7 +5053,7 @@
         <v>1800</v>
       </c>
       <c r="F216" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5076,7 +5073,7 @@
         <v>1800</v>
       </c>
       <c r="F217" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5096,7 +5093,7 @@
         <v>1800</v>
       </c>
       <c r="F218" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5116,7 +5113,7 @@
         <v>1800</v>
       </c>
       <c r="F219" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5136,7 +5133,7 @@
         <v>1800</v>
       </c>
       <c r="F220" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5156,7 +5153,7 @@
         <v>1800</v>
       </c>
       <c r="F221" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5176,7 +5173,7 @@
         <v>1800</v>
       </c>
       <c r="F222" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5196,7 +5193,7 @@
         <v>1800</v>
       </c>
       <c r="F223" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5216,7 +5213,7 @@
         <v>0</v>
       </c>
       <c r="F224" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -5224,7 +5221,7 @@
         <v>49</v>
       </c>
       <c r="B225" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C225">
         <v>624000</v>
@@ -5256,7 +5253,7 @@
         <v>1800</v>
       </c>
       <c r="F226" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -5276,7 +5273,7 @@
         <v>1800</v>
       </c>
       <c r="F227" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -5296,7 +5293,7 @@
         <v>1800</v>
       </c>
       <c r="F228" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -5316,7 +5313,7 @@
         <v>1800</v>
       </c>
       <c r="F229" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -5336,7 +5333,7 @@
         <v>1800</v>
       </c>
       <c r="F230" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -5356,7 +5353,7 @@
         <v>1800</v>
       </c>
       <c r="F231" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -5376,7 +5373,7 @@
         <v>1800</v>
       </c>
       <c r="F232" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -5396,7 +5393,7 @@
         <v>1800</v>
       </c>
       <c r="F233" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -5416,7 +5413,7 @@
         <v>0</v>
       </c>
       <c r="F234" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -5424,7 +5421,7 @@
         <v>52</v>
       </c>
       <c r="B235" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C235">
         <v>656000</v>
@@ -5456,7 +5453,7 @@
         <v>1800</v>
       </c>
       <c r="F236" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -5476,7 +5473,7 @@
         <v>1800</v>
       </c>
       <c r="F237" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -5496,7 +5493,7 @@
         <v>1800</v>
       </c>
       <c r="F238" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -5516,7 +5513,7 @@
         <v>1800</v>
       </c>
       <c r="F239" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -5536,7 +5533,7 @@
         <v>1800</v>
       </c>
       <c r="F240" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -5556,7 +5553,7 @@
         <v>1800</v>
       </c>
       <c r="F241" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -5576,7 +5573,7 @@
         <v>1800</v>
       </c>
       <c r="F242" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -5596,7 +5593,7 @@
         <v>1800</v>
       </c>
       <c r="F243" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -5616,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="F244" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -5624,7 +5621,7 @@
         <v>55</v>
       </c>
       <c r="B245" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C245">
         <v>688000</v>
@@ -5656,7 +5653,7 @@
         <v>1800</v>
       </c>
       <c r="F246" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -5676,7 +5673,7 @@
         <v>1800</v>
       </c>
       <c r="F247" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -5696,7 +5693,7 @@
         <v>1800</v>
       </c>
       <c r="F248" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -5716,7 +5713,7 @@
         <v>1800</v>
       </c>
       <c r="F249" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -5736,7 +5733,7 @@
         <v>1800</v>
       </c>
       <c r="F250" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -5756,7 +5753,7 @@
         <v>1800</v>
       </c>
       <c r="F251" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -5776,7 +5773,7 @@
         <v>1800</v>
       </c>
       <c r="F252" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -5796,7 +5793,7 @@
         <v>1800</v>
       </c>
       <c r="F253" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -5816,7 +5813,7 @@
         <v>1800</v>
       </c>
       <c r="F254" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -5836,7 +5833,7 @@
         <v>1800</v>
       </c>
       <c r="F255" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -5856,7 +5853,7 @@
         <v>1800</v>
       </c>
       <c r="F256" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -5876,7 +5873,7 @@
         <v>1800</v>
       </c>
       <c r="F257" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -5896,7 +5893,7 @@
         <v>1800</v>
       </c>
       <c r="F258" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -5916,7 +5913,7 @@
         <v>1800</v>
       </c>
       <c r="F259" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -5936,7 +5933,7 @@
         <v>0</v>
       </c>
       <c r="F260" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -5944,7 +5941,7 @@
         <v>58</v>
       </c>
       <c r="B261" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C261">
         <v>735000</v>
@@ -5976,7 +5973,7 @@
         <v>1800</v>
       </c>
       <c r="F262" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -5996,7 +5993,7 @@
         <v>1800</v>
       </c>
       <c r="F263" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -6016,7 +6013,7 @@
         <v>1800</v>
       </c>
       <c r="F264" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -6036,7 +6033,7 @@
         <v>1800</v>
       </c>
       <c r="F265" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -6056,7 +6053,7 @@
         <v>1800</v>
       </c>
       <c r="F266" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -6076,7 +6073,7 @@
         <v>1800</v>
       </c>
       <c r="F267" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -6096,7 +6093,7 @@
         <v>1800</v>
       </c>
       <c r="F268" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -6116,7 +6113,7 @@
         <v>1800</v>
       </c>
       <c r="F269" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -6136,7 +6133,7 @@
         <v>1800</v>
       </c>
       <c r="F270" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -6156,7 +6153,7 @@
         <v>1800</v>
       </c>
       <c r="F271" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -6176,7 +6173,7 @@
         <v>1800</v>
       </c>
       <c r="F272" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -6196,7 +6193,7 @@
         <v>1800</v>
       </c>
       <c r="F273" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -6216,7 +6213,7 @@
         <v>1800</v>
       </c>
       <c r="F274" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -6236,7 +6233,7 @@
         <v>1800</v>
       </c>
       <c r="F275" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -6256,7 +6253,7 @@
         <v>1800</v>
       </c>
       <c r="F276" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -6276,7 +6273,7 @@
         <v>1800</v>
       </c>
       <c r="F277" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -6296,7 +6293,7 @@
         <v>1800</v>
       </c>
       <c r="F278" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -6316,7 +6313,7 @@
         <v>1800</v>
       </c>
       <c r="F279" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -6336,7 +6333,7 @@
         <v>1800</v>
       </c>
       <c r="F280" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -6356,7 +6353,7 @@
         <v>1800</v>
       </c>
       <c r="F281" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -6376,7 +6373,7 @@
         <v>0</v>
       </c>
       <c r="F282" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -6384,7 +6381,7 @@
         <v>63</v>
       </c>
       <c r="B283" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C283">
         <v>797000</v>
@@ -6416,7 +6413,7 @@
         <v>1800</v>
       </c>
       <c r="F284" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -6436,7 +6433,7 @@
         <v>1800</v>
       </c>
       <c r="F285" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -6456,7 +6453,7 @@
         <v>1800</v>
       </c>
       <c r="F286" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -6476,7 +6473,7 @@
         <v>1800</v>
       </c>
       <c r="F287" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -6496,7 +6493,7 @@
         <v>0</v>
       </c>
       <c r="F288" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -6504,7 +6501,7 @@
         <v>66</v>
       </c>
       <c r="B289" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C289">
         <v>819000</v>
@@ -6536,7 +6533,7 @@
         <v>1800</v>
       </c>
       <c r="F290" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -6556,7 +6553,7 @@
         <v>1800</v>
       </c>
       <c r="F291" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -6576,7 +6573,7 @@
         <v>1800</v>
       </c>
       <c r="F292" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -6596,7 +6593,7 @@
         <v>1800</v>
       </c>
       <c r="F293" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -6616,7 +6613,7 @@
         <v>1800</v>
       </c>
       <c r="F294" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -6636,7 +6633,7 @@
         <v>1800</v>
       </c>
       <c r="F295" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -6656,7 +6653,7 @@
         <v>1800</v>
       </c>
       <c r="F296" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -6676,7 +6673,7 @@
         <v>1800</v>
       </c>
       <c r="F297" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="298" spans="1:7">
@@ -6696,7 +6693,7 @@
         <v>1800</v>
       </c>
       <c r="F298" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="299" spans="1:7">
@@ -6716,7 +6713,7 @@
         <v>1800</v>
       </c>
       <c r="F299" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="300" spans="1:7">
@@ -6736,7 +6733,7 @@
         <v>1800</v>
       </c>
       <c r="F300" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -6756,7 +6753,7 @@
         <v>1800</v>
       </c>
       <c r="F301" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="302" spans="1:7">
@@ -6776,7 +6773,7 @@
         <v>1800</v>
       </c>
       <c r="F302" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="303" spans="1:7">
@@ -6796,7 +6793,7 @@
         <v>1800</v>
       </c>
       <c r="F303" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="304" spans="1:7">
@@ -6816,7 +6813,7 @@
         <v>1800</v>
       </c>
       <c r="F304" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="305" spans="1:7">
@@ -6836,7 +6833,7 @@
         <v>1800</v>
       </c>
       <c r="F305" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="306" spans="1:7">
@@ -6856,7 +6853,7 @@
         <v>1800</v>
       </c>
       <c r="F306" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="307" spans="1:7">
@@ -6876,7 +6873,7 @@
         <v>1800</v>
       </c>
       <c r="F307" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="308" spans="1:7">
@@ -6896,7 +6893,7 @@
         <v>1800</v>
       </c>
       <c r="F308" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="309" spans="1:7">
@@ -6916,7 +6913,7 @@
         <v>1800</v>
       </c>
       <c r="F309" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="310" spans="1:7">
@@ -6936,7 +6933,7 @@
         <v>1800</v>
       </c>
       <c r="F310" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="311" spans="1:7">
@@ -6956,7 +6953,7 @@
         <v>1800</v>
       </c>
       <c r="F311" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="312" spans="1:7">
@@ -6976,7 +6973,7 @@
         <v>1800</v>
       </c>
       <c r="F312" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="313" spans="1:7">
@@ -6996,7 +6993,7 @@
         <v>1800</v>
       </c>
       <c r="F313" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="314" spans="1:7">
@@ -7016,7 +7013,7 @@
         <v>1800</v>
       </c>
       <c r="F314" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="315" spans="1:7">
@@ -7036,7 +7033,7 @@
         <v>1800</v>
       </c>
       <c r="F315" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="316" spans="1:7">
@@ -7056,7 +7053,7 @@
         <v>0</v>
       </c>
       <c r="F316" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="317" spans="1:7">
@@ -7064,7 +7061,7 @@
         <v>75</v>
       </c>
       <c r="B317" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C317">
         <v>896000</v>
@@ -7096,7 +7093,7 @@
         <v>1800</v>
       </c>
       <c r="F318" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="319" spans="1:7">
@@ -7116,7 +7113,7 @@
         <v>1800</v>
       </c>
       <c r="F319" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="320" spans="1:7">
@@ -7136,7 +7133,7 @@
         <v>1800</v>
       </c>
       <c r="F320" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -7156,7 +7153,7 @@
         <v>1800</v>
       </c>
       <c r="F321" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -7176,7 +7173,7 @@
         <v>1800</v>
       </c>
       <c r="F322" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -7196,7 +7193,7 @@
         <v>1800</v>
       </c>
       <c r="F323" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -7216,7 +7213,7 @@
         <v>1800</v>
       </c>
       <c r="F324" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -7236,7 +7233,7 @@
         <v>1800</v>
       </c>
       <c r="F325" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -7256,7 +7253,7 @@
         <v>1800</v>
       </c>
       <c r="F326" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="327" spans="1:6">
@@ -7276,7 +7273,7 @@
         <v>1800</v>
       </c>
       <c r="F327" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -7296,7 +7293,7 @@
         <v>1800</v>
       </c>
       <c r="F328" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -7316,7 +7313,7 @@
         <v>1800</v>
       </c>
       <c r="F329" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -7336,7 +7333,7 @@
         <v>1800</v>
       </c>
       <c r="F330" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="331" spans="1:6">
@@ -7356,7 +7353,7 @@
         <v>1800</v>
       </c>
       <c r="F331" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="332" spans="1:6">
@@ -7376,7 +7373,7 @@
         <v>1800</v>
       </c>
       <c r="F332" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="333" spans="1:6">
@@ -7396,7 +7393,7 @@
         <v>1800</v>
       </c>
       <c r="F333" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -7416,7 +7413,7 @@
         <v>1800</v>
       </c>
       <c r="F334" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -7436,7 +7433,7 @@
         <v>1800</v>
       </c>
       <c r="F335" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -7456,7 +7453,7 @@
         <v>1800</v>
       </c>
       <c r="F336" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -7476,7 +7473,7 @@
         <v>1800</v>
       </c>
       <c r="F337" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -7496,7 +7493,7 @@
         <v>1800</v>
       </c>
       <c r="F338" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -7516,7 +7513,7 @@
         <v>1800</v>
       </c>
       <c r="F339" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -7536,7 +7533,7 @@
         <v>1800</v>
       </c>
       <c r="F340" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="341" spans="1:6">
@@ -7556,7 +7553,7 @@
         <v>1800</v>
       </c>
       <c r="F341" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -7576,7 +7573,7 @@
         <v>1800</v>
       </c>
       <c r="F342" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -7596,7 +7593,7 @@
         <v>1800</v>
       </c>
       <c r="F343" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -7616,7 +7613,7 @@
         <v>1800</v>
       </c>
       <c r="F344" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -7636,7 +7633,7 @@
         <v>1800</v>
       </c>
       <c r="F345" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -7656,7 +7653,7 @@
         <v>1800</v>
       </c>
       <c r="F346" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/CDSImagingPilotProtocol_TimingsBlock5.xlsx
+++ b/CDSImagingPilotProtocol_TimingsBlock5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cchmc-my.sharepoint.com/personal/nicholas_dunn_cchmc_org/Documents/Documents/06 - Neuroimaging Study/SART/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Research\Computerized Tasks\Sustained Attention to Response Task\sart-tp-psychopy-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="95" documentId="11_714D55AF09608C1D70C00786FB012D16618A11DC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9C2F1BE-0B58-45DA-A9A5-AA56F3EB4D10}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8D0473-9C31-4A98-B639-482E0AB51F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="95">
   <si>
     <t>Non-target</t>
   </si>
@@ -281,54 +281,6 @@
     <t>Non-target</t>
   </si>
   <si>
-    <t>Where was your attention focused?</t>
-  </si>
-  <si>
-    <t>Where was your attention focused?</t>
-  </si>
-  <si>
-    <t>Where was your attention focused?</t>
-  </si>
-  <si>
-    <t>Where was your attention focused?</t>
-  </si>
-  <si>
-    <t>Where was your attention focused?</t>
-  </si>
-  <si>
-    <t>Where was your attention focused?</t>
-  </si>
-  <si>
-    <t>Where was your attention focused?</t>
-  </si>
-  <si>
-    <t>Where was your attention focused?</t>
-  </si>
-  <si>
-    <t>Where was your attention focused?</t>
-  </si>
-  <si>
-    <t>Where was your attention focused?</t>
-  </si>
-  <si>
-    <t>Where was your attention focused?</t>
-  </si>
-  <si>
-    <t>Where was your attention focused?</t>
-  </si>
-  <si>
-    <t>Where was your attention focused?</t>
-  </si>
-  <si>
-    <t>Where was your attention focused?</t>
-  </si>
-  <si>
-    <t>Where was your attention focused?</t>
-  </si>
-  <si>
-    <t>Where was your attention focused?</t>
-  </si>
-  <si>
     <t>trialType</t>
   </si>
   <si>
@@ -366,6 +318,9 @@
   </si>
   <si>
     <t>Press the right button.</t>
+  </si>
+  <si>
+    <t>Where was your attention focused just before the probe?</t>
   </si>
 </sst>
 </file>
@@ -415,10 +370,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -721,7 +672,7 @@
   <dimension ref="A1:G346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -735,25 +686,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="D1" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="E1" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="G1" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -773,7 +724,7 @@
         <v>1800</v>
       </c>
       <c r="F2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -793,7 +744,7 @@
         <v>1800</v>
       </c>
       <c r="F3" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -813,7 +764,7 @@
         <v>1800</v>
       </c>
       <c r="F4" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -833,7 +784,7 @@
         <v>1800</v>
       </c>
       <c r="F5" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -853,7 +804,7 @@
         <v>1800</v>
       </c>
       <c r="F6" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -873,7 +824,7 @@
         <v>1800</v>
       </c>
       <c r="F7" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -893,7 +844,7 @@
         <v>1800</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -913,7 +864,7 @@
         <v>1800</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -933,7 +884,7 @@
         <v>1800</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -953,7 +904,7 @@
         <v>1800</v>
       </c>
       <c r="F11" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -961,7 +912,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C12">
         <v>25000</v>
@@ -973,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -981,7 +932,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C13">
         <v>31000</v>
@@ -993,7 +944,7 @@
         <v>5000</v>
       </c>
       <c r="G13" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1013,7 +964,7 @@
         <v>1800</v>
       </c>
       <c r="F14" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1033,7 +984,7 @@
         <v>1800</v>
       </c>
       <c r="F15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1053,7 +1004,7 @@
         <v>1800</v>
       </c>
       <c r="F16" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1073,7 +1024,7 @@
         <v>1800</v>
       </c>
       <c r="F17" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1093,7 +1044,7 @@
         <v>1800</v>
       </c>
       <c r="F18" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1113,7 +1064,7 @@
         <v>1800</v>
       </c>
       <c r="F19" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1133,7 +1084,7 @@
         <v>1800</v>
       </c>
       <c r="F20" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1141,7 +1092,7 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C21">
         <v>54500</v>
@@ -1153,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1161,7 +1112,7 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C22">
         <v>60500</v>
@@ -1173,7 +1124,7 @@
         <v>5000</v>
       </c>
       <c r="G22" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1193,7 +1144,7 @@
         <v>1800</v>
       </c>
       <c r="F23" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1213,7 +1164,7 @@
         <v>1800</v>
       </c>
       <c r="F24" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1233,7 +1184,7 @@
         <v>1800</v>
       </c>
       <c r="F25" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1253,7 +1204,7 @@
         <v>1800</v>
       </c>
       <c r="F26" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1273,7 +1224,7 @@
         <v>1800</v>
       </c>
       <c r="F27" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1293,7 +1244,7 @@
         <v>1800</v>
       </c>
       <c r="F28" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1313,7 +1264,7 @@
         <v>1800</v>
       </c>
       <c r="F29" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1333,7 +1284,7 @@
         <v>1800</v>
       </c>
       <c r="F30" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1353,7 +1304,7 @@
         <v>1800</v>
       </c>
       <c r="F31" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1373,7 +1324,7 @@
         <v>1800</v>
       </c>
       <c r="F32" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1393,7 +1344,7 @@
         <v>1800</v>
       </c>
       <c r="F33" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1401,7 +1352,7 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C34">
         <v>94000</v>
@@ -1413,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1421,7 +1372,7 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C35">
         <v>100000</v>
@@ -1433,7 +1384,7 @@
         <v>5000</v>
       </c>
       <c r="G35" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1453,7 +1404,7 @@
         <v>1800</v>
       </c>
       <c r="F36" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1473,7 +1424,7 @@
         <v>1800</v>
       </c>
       <c r="F37" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1493,7 +1444,7 @@
         <v>1800</v>
       </c>
       <c r="F38" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1513,7 +1464,7 @@
         <v>1800</v>
       </c>
       <c r="F39" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1533,7 +1484,7 @@
         <v>1800</v>
       </c>
       <c r="F40" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1553,7 +1504,7 @@
         <v>1800</v>
       </c>
       <c r="F41" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1573,7 +1524,7 @@
         <v>1800</v>
       </c>
       <c r="F42" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1593,7 +1544,7 @@
         <v>1800</v>
       </c>
       <c r="F43" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1613,7 +1564,7 @@
         <v>1800</v>
       </c>
       <c r="F44" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1633,7 +1584,7 @@
         <v>1800</v>
       </c>
       <c r="F45" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1653,7 +1604,7 @@
         <v>1800</v>
       </c>
       <c r="F46" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1673,7 +1624,7 @@
         <v>1800</v>
       </c>
       <c r="F47" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1693,7 +1644,7 @@
         <v>1800</v>
       </c>
       <c r="F48" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1713,7 +1664,7 @@
         <v>1800</v>
       </c>
       <c r="F49" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1733,7 +1684,7 @@
         <v>1800</v>
       </c>
       <c r="F50" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1753,7 +1704,7 @@
         <v>1800</v>
       </c>
       <c r="F51" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1773,7 +1724,7 @@
         <v>1800</v>
       </c>
       <c r="F52" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1793,7 +1744,7 @@
         <v>1800</v>
       </c>
       <c r="F53" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1813,7 +1764,7 @@
         <v>1800</v>
       </c>
       <c r="F54" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1833,7 +1784,7 @@
         <v>1800</v>
       </c>
       <c r="F55" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1853,7 +1804,7 @@
         <v>1800</v>
       </c>
       <c r="F56" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1873,7 +1824,7 @@
         <v>1800</v>
       </c>
       <c r="F57" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1893,7 +1844,7 @@
         <v>1800</v>
       </c>
       <c r="F58" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1901,7 +1852,7 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C59">
         <v>163500</v>
@@ -1913,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="F59" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1921,7 +1872,7 @@
         <v>13</v>
       </c>
       <c r="B60" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C60">
         <v>169500</v>
@@ -1933,7 +1884,7 @@
         <v>5000</v>
       </c>
       <c r="G60" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1953,7 +1904,7 @@
         <v>1800</v>
       </c>
       <c r="F61" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1973,7 +1924,7 @@
         <v>1800</v>
       </c>
       <c r="F62" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1993,7 +1944,7 @@
         <v>1800</v>
       </c>
       <c r="F63" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2013,7 +1964,7 @@
         <v>1800</v>
       </c>
       <c r="F64" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2033,7 +1984,7 @@
         <v>1800</v>
       </c>
       <c r="F65" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2053,7 +2004,7 @@
         <v>1800</v>
       </c>
       <c r="F66" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2073,7 +2024,7 @@
         <v>1800</v>
       </c>
       <c r="F67" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2093,7 +2044,7 @@
         <v>1800</v>
       </c>
       <c r="F68" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2113,7 +2064,7 @@
         <v>1800</v>
       </c>
       <c r="F69" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2133,7 +2084,7 @@
         <v>1800</v>
       </c>
       <c r="F70" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2153,7 +2104,7 @@
         <v>1800</v>
       </c>
       <c r="F71" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2173,7 +2124,7 @@
         <v>1800</v>
       </c>
       <c r="F72" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2181,7 +2132,7 @@
         <v>15</v>
       </c>
       <c r="B73" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C73">
         <v>205500</v>
@@ -2193,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="F73" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2201,7 +2152,7 @@
         <v>16</v>
       </c>
       <c r="B74" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C74">
         <v>211500</v>
@@ -2213,7 +2164,7 @@
         <v>5000</v>
       </c>
       <c r="G74" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2233,7 +2184,7 @@
         <v>1800</v>
       </c>
       <c r="F75" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2253,7 +2204,7 @@
         <v>1800</v>
       </c>
       <c r="F76" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2273,7 +2224,7 @@
         <v>1800</v>
       </c>
       <c r="F77" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2293,7 +2244,7 @@
         <v>1800</v>
       </c>
       <c r="F78" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2313,7 +2264,7 @@
         <v>1800</v>
       </c>
       <c r="F79" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2333,7 +2284,7 @@
         <v>1800</v>
       </c>
       <c r="F80" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2353,7 +2304,7 @@
         <v>1800</v>
       </c>
       <c r="F81" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2373,7 +2324,7 @@
         <v>1800</v>
       </c>
       <c r="F82" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2393,7 +2344,7 @@
         <v>1800</v>
       </c>
       <c r="F83" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2413,7 +2364,7 @@
         <v>1800</v>
       </c>
       <c r="F84" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2433,7 +2384,7 @@
         <v>1800</v>
       </c>
       <c r="F85" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2453,7 +2404,7 @@
         <v>1800</v>
       </c>
       <c r="F86" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2473,7 +2424,7 @@
         <v>1800</v>
       </c>
       <c r="F87" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2493,7 +2444,7 @@
         <v>1800</v>
       </c>
       <c r="F88" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2513,7 +2464,7 @@
         <v>1800</v>
       </c>
       <c r="F89" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2533,7 +2484,7 @@
         <v>1800</v>
       </c>
       <c r="F90" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2553,7 +2504,7 @@
         <v>1800</v>
       </c>
       <c r="F91" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2561,7 +2512,7 @@
         <v>20</v>
       </c>
       <c r="B92" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C92">
         <v>260000</v>
@@ -2573,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="F92" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2581,7 +2532,7 @@
         <v>21</v>
       </c>
       <c r="B93" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C93">
         <v>266000</v>
@@ -2593,7 +2544,7 @@
         <v>5000</v>
       </c>
       <c r="G93" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2613,7 +2564,7 @@
         <v>1800</v>
       </c>
       <c r="F94" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2633,7 +2584,7 @@
         <v>1800</v>
       </c>
       <c r="F95" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2653,7 +2604,7 @@
         <v>1800</v>
       </c>
       <c r="F96" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2673,7 +2624,7 @@
         <v>1800</v>
       </c>
       <c r="F97" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2693,7 +2644,7 @@
         <v>1800</v>
       </c>
       <c r="F98" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2713,7 +2664,7 @@
         <v>1800</v>
       </c>
       <c r="F99" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2733,7 +2684,7 @@
         <v>1800</v>
       </c>
       <c r="F100" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2753,7 +2704,7 @@
         <v>1800</v>
       </c>
       <c r="F101" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2773,7 +2724,7 @@
         <v>1800</v>
       </c>
       <c r="F102" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2793,7 +2744,7 @@
         <v>1800</v>
       </c>
       <c r="F103" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2813,7 +2764,7 @@
         <v>1800</v>
       </c>
       <c r="F104" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2833,7 +2784,7 @@
         <v>1800</v>
       </c>
       <c r="F105" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2853,7 +2804,7 @@
         <v>1800</v>
       </c>
       <c r="F106" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2873,7 +2824,7 @@
         <v>1800</v>
       </c>
       <c r="F107" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2893,7 +2844,7 @@
         <v>1800</v>
       </c>
       <c r="F108" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2913,7 +2864,7 @@
         <v>1800</v>
       </c>
       <c r="F109" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2933,7 +2884,7 @@
         <v>1800</v>
       </c>
       <c r="F110" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2953,7 +2904,7 @@
         <v>1800</v>
       </c>
       <c r="F111" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2973,7 +2924,7 @@
         <v>1800</v>
       </c>
       <c r="F112" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2993,7 +2944,7 @@
         <v>1800</v>
       </c>
       <c r="F113" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3013,7 +2964,7 @@
         <v>1800</v>
       </c>
       <c r="F114" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3033,7 +2984,7 @@
         <v>1800</v>
       </c>
       <c r="F115" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3053,7 +3004,7 @@
         <v>1800</v>
       </c>
       <c r="F116" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3073,7 +3024,7 @@
         <v>1800</v>
       </c>
       <c r="F117" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3093,7 +3044,7 @@
         <v>1800</v>
       </c>
       <c r="F118" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3113,7 +3064,7 @@
         <v>1800</v>
       </c>
       <c r="F119" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3133,7 +3084,7 @@
         <v>1800</v>
       </c>
       <c r="F120" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3141,7 +3092,7 @@
         <v>25</v>
       </c>
       <c r="B121" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C121">
         <v>339500</v>
@@ -3153,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="F121" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3161,7 +3112,7 @@
         <v>26</v>
       </c>
       <c r="B122" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C122">
         <v>345500</v>
@@ -3173,7 +3124,7 @@
         <v>5000</v>
       </c>
       <c r="G122" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3193,7 +3144,7 @@
         <v>1800</v>
       </c>
       <c r="F123" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3213,7 +3164,7 @@
         <v>1800</v>
       </c>
       <c r="F124" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3233,7 +3184,7 @@
         <v>1800</v>
       </c>
       <c r="F125" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3253,7 +3204,7 @@
         <v>1800</v>
       </c>
       <c r="F126" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3273,7 +3224,7 @@
         <v>1800</v>
       </c>
       <c r="F127" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3293,7 +3244,7 @@
         <v>1800</v>
       </c>
       <c r="F128" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3313,7 +3264,7 @@
         <v>1800</v>
       </c>
       <c r="F129" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3333,7 +3284,7 @@
         <v>1800</v>
       </c>
       <c r="F130" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3353,7 +3304,7 @@
         <v>1800</v>
       </c>
       <c r="F131" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3373,7 +3324,7 @@
         <v>1800</v>
       </c>
       <c r="F132" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3393,7 +3344,7 @@
         <v>1800</v>
       </c>
       <c r="F133" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3413,7 +3364,7 @@
         <v>1800</v>
       </c>
       <c r="F134" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3433,7 +3384,7 @@
         <v>1800</v>
       </c>
       <c r="F135" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3453,7 +3404,7 @@
         <v>1800</v>
       </c>
       <c r="F136" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3473,7 +3424,7 @@
         <v>1800</v>
       </c>
       <c r="F137" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3493,7 +3444,7 @@
         <v>1800</v>
       </c>
       <c r="F138" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3513,7 +3464,7 @@
         <v>1800</v>
       </c>
       <c r="F139" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3533,7 +3484,7 @@
         <v>1800</v>
       </c>
       <c r="F140" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3553,7 +3504,7 @@
         <v>1800</v>
       </c>
       <c r="F141" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3573,7 +3524,7 @@
         <v>1800</v>
       </c>
       <c r="F142" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3593,7 +3544,7 @@
         <v>1800</v>
       </c>
       <c r="F143" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3613,7 +3564,7 @@
         <v>1800</v>
       </c>
       <c r="F144" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3633,7 +3584,7 @@
         <v>1800</v>
       </c>
       <c r="F145" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3653,7 +3604,7 @@
         <v>1800</v>
       </c>
       <c r="F146" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3673,7 +3624,7 @@
         <v>1800</v>
       </c>
       <c r="F147" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3681,7 +3632,7 @@
         <v>32</v>
       </c>
       <c r="B148" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C148">
         <v>414000</v>
@@ -3693,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="F148" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3701,7 +3652,7 @@
         <v>33</v>
       </c>
       <c r="B149" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C149">
         <v>420000</v>
@@ -3713,7 +3664,7 @@
         <v>5000</v>
       </c>
       <c r="G149" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3733,7 +3684,7 @@
         <v>1800</v>
       </c>
       <c r="F150" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3753,7 +3704,7 @@
         <v>1800</v>
       </c>
       <c r="F151" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3773,7 +3724,7 @@
         <v>1800</v>
       </c>
       <c r="F152" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3793,7 +3744,7 @@
         <v>1800</v>
       </c>
       <c r="F153" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3813,7 +3764,7 @@
         <v>1800</v>
       </c>
       <c r="F154" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3833,7 +3784,7 @@
         <v>1800</v>
       </c>
       <c r="F155" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3853,7 +3804,7 @@
         <v>1800</v>
       </c>
       <c r="F156" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -3861,7 +3812,7 @@
         <v>35</v>
       </c>
       <c r="B157" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C157">
         <v>443500</v>
@@ -3873,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="F157" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -3881,7 +3832,7 @@
         <v>36</v>
       </c>
       <c r="B158" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C158">
         <v>449500</v>
@@ -3893,7 +3844,7 @@
         <v>5000</v>
       </c>
       <c r="G158" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -3913,7 +3864,7 @@
         <v>1800</v>
       </c>
       <c r="F159" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -3933,7 +3884,7 @@
         <v>1800</v>
       </c>
       <c r="F160" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3953,7 +3904,7 @@
         <v>1800</v>
       </c>
       <c r="F161" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3973,7 +3924,7 @@
         <v>1800</v>
       </c>
       <c r="F162" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3993,7 +3944,7 @@
         <v>1800</v>
       </c>
       <c r="F163" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4013,7 +3964,7 @@
         <v>1800</v>
       </c>
       <c r="F164" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4033,7 +3984,7 @@
         <v>1800</v>
       </c>
       <c r="F165" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4053,7 +4004,7 @@
         <v>1800</v>
       </c>
       <c r="F166" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4073,7 +4024,7 @@
         <v>1800</v>
       </c>
       <c r="F167" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4093,7 +4044,7 @@
         <v>1800</v>
       </c>
       <c r="F168" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4113,7 +4064,7 @@
         <v>1800</v>
       </c>
       <c r="F169" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4133,7 +4084,7 @@
         <v>1800</v>
       </c>
       <c r="F170" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4153,7 +4104,7 @@
         <v>1800</v>
       </c>
       <c r="F171" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4173,7 +4124,7 @@
         <v>1800</v>
       </c>
       <c r="F172" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4193,7 +4144,7 @@
         <v>1800</v>
       </c>
       <c r="F173" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4213,7 +4164,7 @@
         <v>1800</v>
       </c>
       <c r="F174" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4233,7 +4184,7 @@
         <v>1800</v>
       </c>
       <c r="F175" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4253,7 +4204,7 @@
         <v>1800</v>
       </c>
       <c r="F176" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4273,7 +4224,7 @@
         <v>1800</v>
       </c>
       <c r="F177" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4293,7 +4244,7 @@
         <v>1800</v>
       </c>
       <c r="F178" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4313,7 +4264,7 @@
         <v>1800</v>
       </c>
       <c r="F179" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4333,7 +4284,7 @@
         <v>1800</v>
       </c>
       <c r="F180" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4353,7 +4304,7 @@
         <v>1800</v>
       </c>
       <c r="F181" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4373,7 +4324,7 @@
         <v>1800</v>
       </c>
       <c r="F182" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4393,7 +4344,7 @@
         <v>1800</v>
       </c>
       <c r="F183" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4413,7 +4364,7 @@
         <v>1800</v>
       </c>
       <c r="F184" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4433,7 +4384,7 @@
         <v>1800</v>
       </c>
       <c r="F185" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4453,7 +4404,7 @@
         <v>1800</v>
       </c>
       <c r="F186" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4473,7 +4424,7 @@
         <v>1800</v>
       </c>
       <c r="F187" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4493,7 +4444,7 @@
         <v>1800</v>
       </c>
       <c r="F188" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4513,7 +4464,7 @@
         <v>1800</v>
       </c>
       <c r="F189" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4533,7 +4484,7 @@
         <v>1800</v>
       </c>
       <c r="F190" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4553,7 +4504,7 @@
         <v>1800</v>
       </c>
       <c r="F191" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4573,7 +4524,7 @@
         <v>1800</v>
       </c>
       <c r="F192" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4593,7 +4544,7 @@
         <v>1800</v>
       </c>
       <c r="F193" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4613,7 +4564,7 @@
         <v>1800</v>
       </c>
       <c r="F194" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4633,7 +4584,7 @@
         <v>1800</v>
       </c>
       <c r="F195" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4653,7 +4604,7 @@
         <v>1800</v>
       </c>
       <c r="F196" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4673,7 +4624,7 @@
         <v>1800</v>
       </c>
       <c r="F197" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4693,7 +4644,7 @@
         <v>1800</v>
       </c>
       <c r="F198" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4713,7 +4664,7 @@
         <v>1800</v>
       </c>
       <c r="F199" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4733,7 +4684,7 @@
         <v>1800</v>
       </c>
       <c r="F200" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4753,7 +4704,7 @@
         <v>1800</v>
       </c>
       <c r="F201" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4773,7 +4724,7 @@
         <v>1800</v>
       </c>
       <c r="F202" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4793,7 +4744,7 @@
         <v>1800</v>
       </c>
       <c r="F203" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4813,7 +4764,7 @@
         <v>1800</v>
       </c>
       <c r="F204" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4833,7 +4784,7 @@
         <v>1800</v>
       </c>
       <c r="F205" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4853,7 +4804,7 @@
         <v>1800</v>
       </c>
       <c r="F206" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4873,7 +4824,7 @@
         <v>1800</v>
       </c>
       <c r="F207" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4893,7 +4844,7 @@
         <v>1800</v>
       </c>
       <c r="F208" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4913,7 +4864,7 @@
         <v>1800</v>
       </c>
       <c r="F209" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4933,7 +4884,7 @@
         <v>1800</v>
       </c>
       <c r="F210" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4953,7 +4904,7 @@
         <v>1800</v>
       </c>
       <c r="F211" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4973,7 +4924,7 @@
         <v>1800</v>
       </c>
       <c r="F212" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4993,7 +4944,7 @@
         <v>1800</v>
       </c>
       <c r="F213" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5013,7 +4964,7 @@
         <v>1800</v>
       </c>
       <c r="F214" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5033,7 +4984,7 @@
         <v>1800</v>
       </c>
       <c r="F215" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5053,7 +5004,7 @@
         <v>1800</v>
       </c>
       <c r="F216" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5073,7 +5024,7 @@
         <v>1800</v>
       </c>
       <c r="F217" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5093,7 +5044,7 @@
         <v>1800</v>
       </c>
       <c r="F218" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5113,7 +5064,7 @@
         <v>1800</v>
       </c>
       <c r="F219" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5133,7 +5084,7 @@
         <v>1800</v>
       </c>
       <c r="F220" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5153,7 +5104,7 @@
         <v>1800</v>
       </c>
       <c r="F221" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5173,7 +5124,7 @@
         <v>1800</v>
       </c>
       <c r="F222" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5193,7 +5144,7 @@
         <v>1800</v>
       </c>
       <c r="F223" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5201,7 +5152,7 @@
         <v>48</v>
       </c>
       <c r="B224" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C224">
         <v>618000</v>
@@ -5213,7 +5164,7 @@
         <v>0</v>
       </c>
       <c r="F224" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -5221,7 +5172,7 @@
         <v>49</v>
       </c>
       <c r="B225" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C225">
         <v>624000</v>
@@ -5233,7 +5184,7 @@
         <v>5000</v>
       </c>
       <c r="G225" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -5253,7 +5204,7 @@
         <v>1800</v>
       </c>
       <c r="F226" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -5273,7 +5224,7 @@
         <v>1800</v>
       </c>
       <c r="F227" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -5293,7 +5244,7 @@
         <v>1800</v>
       </c>
       <c r="F228" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -5313,7 +5264,7 @@
         <v>1800</v>
       </c>
       <c r="F229" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -5333,7 +5284,7 @@
         <v>1800</v>
       </c>
       <c r="F230" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -5353,7 +5304,7 @@
         <v>1800</v>
       </c>
       <c r="F231" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -5373,7 +5324,7 @@
         <v>1800</v>
       </c>
       <c r="F232" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -5393,7 +5344,7 @@
         <v>1800</v>
       </c>
       <c r="F233" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -5401,7 +5352,7 @@
         <v>51</v>
       </c>
       <c r="B234" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C234">
         <v>650000</v>
@@ -5413,7 +5364,7 @@
         <v>0</v>
       </c>
       <c r="F234" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -5421,7 +5372,7 @@
         <v>52</v>
       </c>
       <c r="B235" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C235">
         <v>656000</v>
@@ -5433,7 +5384,7 @@
         <v>5000</v>
       </c>
       <c r="G235" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -5453,7 +5404,7 @@
         <v>1800</v>
       </c>
       <c r="F236" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -5473,7 +5424,7 @@
         <v>1800</v>
       </c>
       <c r="F237" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -5493,7 +5444,7 @@
         <v>1800</v>
       </c>
       <c r="F238" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -5513,7 +5464,7 @@
         <v>1800</v>
       </c>
       <c r="F239" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -5533,7 +5484,7 @@
         <v>1800</v>
       </c>
       <c r="F240" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -5553,7 +5504,7 @@
         <v>1800</v>
       </c>
       <c r="F241" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -5573,7 +5524,7 @@
         <v>1800</v>
       </c>
       <c r="F242" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -5593,7 +5544,7 @@
         <v>1800</v>
       </c>
       <c r="F243" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -5601,7 +5552,7 @@
         <v>54</v>
       </c>
       <c r="B244" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C244">
         <v>682000</v>
@@ -5613,7 +5564,7 @@
         <v>0</v>
       </c>
       <c r="F244" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -5621,7 +5572,7 @@
         <v>55</v>
       </c>
       <c r="B245" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C245">
         <v>688000</v>
@@ -5633,7 +5584,7 @@
         <v>5000</v>
       </c>
       <c r="G245" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -5653,7 +5604,7 @@
         <v>1800</v>
       </c>
       <c r="F246" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -5673,7 +5624,7 @@
         <v>1800</v>
       </c>
       <c r="F247" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -5693,7 +5644,7 @@
         <v>1800</v>
       </c>
       <c r="F248" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -5713,7 +5664,7 @@
         <v>1800</v>
       </c>
       <c r="F249" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -5733,7 +5684,7 @@
         <v>1800</v>
       </c>
       <c r="F250" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -5753,7 +5704,7 @@
         <v>1800</v>
       </c>
       <c r="F251" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -5773,7 +5724,7 @@
         <v>1800</v>
       </c>
       <c r="F252" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -5793,7 +5744,7 @@
         <v>1800</v>
       </c>
       <c r="F253" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -5813,7 +5764,7 @@
         <v>1800</v>
       </c>
       <c r="F254" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -5833,7 +5784,7 @@
         <v>1800</v>
       </c>
       <c r="F255" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -5853,7 +5804,7 @@
         <v>1800</v>
       </c>
       <c r="F256" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -5873,7 +5824,7 @@
         <v>1800</v>
       </c>
       <c r="F257" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -5893,7 +5844,7 @@
         <v>1800</v>
       </c>
       <c r="F258" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -5913,7 +5864,7 @@
         <v>1800</v>
       </c>
       <c r="F259" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -5921,7 +5872,7 @@
         <v>57</v>
       </c>
       <c r="B260" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C260">
         <v>729000</v>
@@ -5933,7 +5884,7 @@
         <v>0</v>
       </c>
       <c r="F260" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -5941,7 +5892,7 @@
         <v>58</v>
       </c>
       <c r="B261" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C261">
         <v>735000</v>
@@ -5953,7 +5904,7 @@
         <v>5000</v>
       </c>
       <c r="G261" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -5973,7 +5924,7 @@
         <v>1800</v>
       </c>
       <c r="F262" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -5993,7 +5944,7 @@
         <v>1800</v>
       </c>
       <c r="F263" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -6013,7 +5964,7 @@
         <v>1800</v>
       </c>
       <c r="F264" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -6033,7 +5984,7 @@
         <v>1800</v>
       </c>
       <c r="F265" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -6053,7 +6004,7 @@
         <v>1800</v>
       </c>
       <c r="F266" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -6073,7 +6024,7 @@
         <v>1800</v>
       </c>
       <c r="F267" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -6093,7 +6044,7 @@
         <v>1800</v>
       </c>
       <c r="F268" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -6113,7 +6064,7 @@
         <v>1800</v>
       </c>
       <c r="F269" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -6133,7 +6084,7 @@
         <v>1800</v>
       </c>
       <c r="F270" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -6153,7 +6104,7 @@
         <v>1800</v>
       </c>
       <c r="F271" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -6173,7 +6124,7 @@
         <v>1800</v>
       </c>
       <c r="F272" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -6193,7 +6144,7 @@
         <v>1800</v>
       </c>
       <c r="F273" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -6213,7 +6164,7 @@
         <v>1800</v>
       </c>
       <c r="F274" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -6233,7 +6184,7 @@
         <v>1800</v>
       </c>
       <c r="F275" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -6253,7 +6204,7 @@
         <v>1800</v>
       </c>
       <c r="F276" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -6273,7 +6224,7 @@
         <v>1800</v>
       </c>
       <c r="F277" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -6293,7 +6244,7 @@
         <v>1800</v>
       </c>
       <c r="F278" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -6313,7 +6264,7 @@
         <v>1800</v>
       </c>
       <c r="F279" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -6333,7 +6284,7 @@
         <v>1800</v>
       </c>
       <c r="F280" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -6353,7 +6304,7 @@
         <v>1800</v>
       </c>
       <c r="F281" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -6373,7 +6324,7 @@
         <v>0</v>
       </c>
       <c r="F282" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -6381,7 +6332,7 @@
         <v>63</v>
       </c>
       <c r="B283" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C283">
         <v>797000</v>
@@ -6393,7 +6344,7 @@
         <v>5000</v>
       </c>
       <c r="G283" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -6413,7 +6364,7 @@
         <v>1800</v>
       </c>
       <c r="F284" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -6433,7 +6384,7 @@
         <v>1800</v>
       </c>
       <c r="F285" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -6453,7 +6404,7 @@
         <v>1800</v>
       </c>
       <c r="F286" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -6473,7 +6424,7 @@
         <v>1800</v>
       </c>
       <c r="F287" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -6481,7 +6432,7 @@
         <v>65</v>
       </c>
       <c r="B288" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C288">
         <v>813000</v>
@@ -6493,7 +6444,7 @@
         <v>0</v>
       </c>
       <c r="F288" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -6501,7 +6452,7 @@
         <v>66</v>
       </c>
       <c r="B289" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C289">
         <v>819000</v>
@@ -6513,7 +6464,7 @@
         <v>5000</v>
       </c>
       <c r="G289" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -6533,7 +6484,7 @@
         <v>1800</v>
       </c>
       <c r="F290" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -6553,7 +6504,7 @@
         <v>1800</v>
       </c>
       <c r="F291" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -6573,7 +6524,7 @@
         <v>1800</v>
       </c>
       <c r="F292" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -6593,7 +6544,7 @@
         <v>1800</v>
       </c>
       <c r="F293" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -6613,7 +6564,7 @@
         <v>1800</v>
       </c>
       <c r="F294" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -6633,7 +6584,7 @@
         <v>1800</v>
       </c>
       <c r="F295" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -6653,7 +6604,7 @@
         <v>1800</v>
       </c>
       <c r="F296" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -6673,7 +6624,7 @@
         <v>1800</v>
       </c>
       <c r="F297" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="298" spans="1:7">
@@ -6693,7 +6644,7 @@
         <v>1800</v>
       </c>
       <c r="F298" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="299" spans="1:7">
@@ -6713,7 +6664,7 @@
         <v>1800</v>
       </c>
       <c r="F299" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="300" spans="1:7">
@@ -6733,7 +6684,7 @@
         <v>1800</v>
       </c>
       <c r="F300" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -6753,7 +6704,7 @@
         <v>1800</v>
       </c>
       <c r="F301" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="302" spans="1:7">
@@ -6773,7 +6724,7 @@
         <v>1800</v>
       </c>
       <c r="F302" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="303" spans="1:7">
@@ -6793,7 +6744,7 @@
         <v>1800</v>
       </c>
       <c r="F303" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="304" spans="1:7">
@@ -6813,7 +6764,7 @@
         <v>1800</v>
       </c>
       <c r="F304" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="305" spans="1:7">
@@ -6833,7 +6784,7 @@
         <v>1800</v>
       </c>
       <c r="F305" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="306" spans="1:7">
@@ -6853,7 +6804,7 @@
         <v>1800</v>
       </c>
       <c r="F306" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="307" spans="1:7">
@@ -6873,7 +6824,7 @@
         <v>1800</v>
       </c>
       <c r="F307" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="308" spans="1:7">
@@ -6893,7 +6844,7 @@
         <v>1800</v>
       </c>
       <c r="F308" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="309" spans="1:7">
@@ -6913,7 +6864,7 @@
         <v>1800</v>
       </c>
       <c r="F309" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="310" spans="1:7">
@@ -6933,7 +6884,7 @@
         <v>1800</v>
       </c>
       <c r="F310" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="311" spans="1:7">
@@ -6953,7 +6904,7 @@
         <v>1800</v>
       </c>
       <c r="F311" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="312" spans="1:7">
@@ -6973,7 +6924,7 @@
         <v>1800</v>
       </c>
       <c r="F312" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="313" spans="1:7">
@@ -6993,7 +6944,7 @@
         <v>1800</v>
       </c>
       <c r="F313" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="314" spans="1:7">
@@ -7013,7 +6964,7 @@
         <v>1800</v>
       </c>
       <c r="F314" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="315" spans="1:7">
@@ -7033,7 +6984,7 @@
         <v>1800</v>
       </c>
       <c r="F315" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="316" spans="1:7">
@@ -7041,7 +6992,7 @@
         <v>74</v>
       </c>
       <c r="B316" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C316">
         <v>890000</v>
@@ -7053,7 +7004,7 @@
         <v>0</v>
       </c>
       <c r="F316" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="317" spans="1:7">
@@ -7061,7 +7012,7 @@
         <v>75</v>
       </c>
       <c r="B317" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C317">
         <v>896000</v>
@@ -7073,7 +7024,7 @@
         <v>5000</v>
       </c>
       <c r="G317" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="318" spans="1:7">
@@ -7093,7 +7044,7 @@
         <v>1800</v>
       </c>
       <c r="F318" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="319" spans="1:7">
@@ -7113,7 +7064,7 @@
         <v>1800</v>
       </c>
       <c r="F319" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="320" spans="1:7">
@@ -7133,7 +7084,7 @@
         <v>1800</v>
       </c>
       <c r="F320" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -7153,7 +7104,7 @@
         <v>1800</v>
       </c>
       <c r="F321" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -7173,7 +7124,7 @@
         <v>1800</v>
       </c>
       <c r="F322" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -7193,7 +7144,7 @@
         <v>1800</v>
       </c>
       <c r="F323" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -7213,7 +7164,7 @@
         <v>1800</v>
       </c>
       <c r="F324" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -7233,7 +7184,7 @@
         <v>1800</v>
       </c>
       <c r="F325" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -7253,7 +7204,7 @@
         <v>1800</v>
       </c>
       <c r="F326" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="327" spans="1:6">
@@ -7273,7 +7224,7 @@
         <v>1800</v>
       </c>
       <c r="F327" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -7293,7 +7244,7 @@
         <v>1800</v>
       </c>
       <c r="F328" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -7313,7 +7264,7 @@
         <v>1800</v>
       </c>
       <c r="F329" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -7333,7 +7284,7 @@
         <v>1800</v>
       </c>
       <c r="F330" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="331" spans="1:6">
@@ -7353,7 +7304,7 @@
         <v>1800</v>
       </c>
       <c r="F331" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="332" spans="1:6">
@@ -7373,7 +7324,7 @@
         <v>1800</v>
       </c>
       <c r="F332" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="333" spans="1:6">
@@ -7393,7 +7344,7 @@
         <v>1800</v>
       </c>
       <c r="F333" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -7413,7 +7364,7 @@
         <v>1800</v>
       </c>
       <c r="F334" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -7433,7 +7384,7 @@
         <v>1800</v>
       </c>
       <c r="F335" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -7453,7 +7404,7 @@
         <v>1800</v>
       </c>
       <c r="F336" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -7473,7 +7424,7 @@
         <v>1800</v>
       </c>
       <c r="F337" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -7493,7 +7444,7 @@
         <v>1800</v>
       </c>
       <c r="F338" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -7513,7 +7464,7 @@
         <v>1800</v>
       </c>
       <c r="F339" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -7533,7 +7484,7 @@
         <v>1800</v>
       </c>
       <c r="F340" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="341" spans="1:6">
@@ -7553,7 +7504,7 @@
         <v>1800</v>
       </c>
       <c r="F341" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -7573,7 +7524,7 @@
         <v>1800</v>
       </c>
       <c r="F342" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -7593,7 +7544,7 @@
         <v>1800</v>
       </c>
       <c r="F343" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -7613,7 +7564,7 @@
         <v>1800</v>
       </c>
       <c r="F344" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -7633,7 +7584,7 @@
         <v>1800</v>
       </c>
       <c r="F345" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -7653,7 +7604,7 @@
         <v>1800</v>
       </c>
       <c r="F346" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
